--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H2">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I2">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J2">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.53694666666667</v>
+        <v>51.79716133333333</v>
       </c>
       <c r="N2">
-        <v>103.61084</v>
+        <v>155.391484</v>
       </c>
       <c r="O2">
-        <v>0.2697205389345977</v>
+        <v>0.39707941336361</v>
       </c>
       <c r="P2">
-        <v>0.2697205389345977</v>
+        <v>0.3970794133636101</v>
       </c>
       <c r="Q2">
-        <v>0.1470468065911111</v>
+        <v>29.73036200490222</v>
       </c>
       <c r="R2">
-        <v>1.32342125932</v>
+        <v>267.57325804412</v>
       </c>
       <c r="S2">
-        <v>1.024933595953838E-05</v>
+        <v>0.001796387094932148</v>
       </c>
       <c r="T2">
-        <v>1.024933595953838E-05</v>
+        <v>0.001796387094932148</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H3">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I3">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J3">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>195.219952</v>
       </c>
       <c r="O3">
-        <v>0.5081980868432908</v>
+        <v>0.498855033889966</v>
       </c>
       <c r="P3">
-        <v>0.5081980868432908</v>
+        <v>0.498855033889966</v>
       </c>
       <c r="Q3">
-        <v>0.2770604940995556</v>
+        <v>37.35056577192889</v>
       </c>
       <c r="R3">
-        <v>2.493544446896</v>
+        <v>336.15509194736</v>
       </c>
       <c r="S3">
-        <v>1.931144341704938E-05</v>
+        <v>0.002256819958332295</v>
       </c>
       <c r="T3">
-        <v>1.931144341704938E-05</v>
+        <v>0.002256819958332294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H4">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I4">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J4">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.287576</v>
+        <v>13.434417</v>
       </c>
       <c r="N4">
-        <v>84.862728</v>
+        <v>40.303251</v>
       </c>
       <c r="O4">
-        <v>0.2209153089736574</v>
+        <v>0.1029888566076525</v>
       </c>
       <c r="P4">
-        <v>0.2209153089736574</v>
+        <v>0.1029888566076525</v>
       </c>
       <c r="Q4">
-        <v>0.120439069416</v>
+        <v>7.711041888270001</v>
       </c>
       <c r="R4">
-        <v>1.083951624744</v>
+        <v>69.39937699443</v>
       </c>
       <c r="S4">
-        <v>8.394745276796565E-06</v>
+        <v>0.0004659215429090773</v>
       </c>
       <c r="T4">
-        <v>8.394745276796566E-06</v>
+        <v>0.0004659215429090773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H5">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I5">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J5">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1328866666666667</v>
+        <v>0.1312456666666667</v>
       </c>
       <c r="N5">
-        <v>0.39866</v>
+        <v>0.393737</v>
       </c>
       <c r="O5">
-        <v>0.00103779479108235</v>
+        <v>0.001006135297475811</v>
       </c>
       <c r="P5">
-        <v>0.00103779479108235</v>
+        <v>0.001006135297475811</v>
       </c>
       <c r="Q5">
-        <v>0.0005657871311111111</v>
+        <v>0.07533195026777778</v>
       </c>
       <c r="R5">
-        <v>0.00509208418</v>
+        <v>0.67798755241</v>
       </c>
       <c r="S5">
-        <v>3.943603076308976E-08</v>
+        <v>4.55175565217782E-06</v>
       </c>
       <c r="T5">
-        <v>3.943603076308976E-08</v>
+        <v>4.551755652177819E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H6">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I6">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J6">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01642466666666667</v>
+        <v>0.009204333333333333</v>
       </c>
       <c r="N6">
-        <v>0.049274</v>
+        <v>0.027613</v>
       </c>
       <c r="O6">
-        <v>0.0001282704573716743</v>
+        <v>7.056084129558454E-05</v>
       </c>
       <c r="P6">
-        <v>0.0001282704573716743</v>
+        <v>7.056084129558454E-05</v>
       </c>
       <c r="Q6">
-        <v>6.993075577777778E-05</v>
+        <v>0.005283072565555556</v>
       </c>
       <c r="R6">
-        <v>0.000629376802</v>
+        <v>0.04754765309</v>
       </c>
       <c r="S6">
-        <v>4.874256207847501E-09</v>
+        <v>3.192172156124168E-07</v>
       </c>
       <c r="T6">
-        <v>4.874256207847501E-09</v>
+        <v>3.192172156124167E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H7">
         <v>1.503156</v>
       </c>
       <c r="I7">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J7">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.53694666666667</v>
+        <v>51.79716133333333</v>
       </c>
       <c r="N7">
-        <v>103.61084</v>
+        <v>155.391484</v>
       </c>
       <c r="O7">
-        <v>0.2697205389345977</v>
+        <v>0.39707941336361</v>
       </c>
       <c r="P7">
-        <v>0.2697205389345977</v>
+        <v>0.3970794133636101</v>
       </c>
       <c r="Q7">
-        <v>17.30480620122666</v>
+        <v>25.95307128038933</v>
       </c>
       <c r="R7">
-        <v>155.74325581104</v>
+        <v>233.577641523504</v>
       </c>
       <c r="S7">
-        <v>0.00120616541482783</v>
+        <v>0.001568153200228713</v>
       </c>
       <c r="T7">
-        <v>0.00120616541482783</v>
+        <v>0.001568153200228713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H8">
         <v>1.503156</v>
       </c>
       <c r="I8">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J8">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,22 +939,22 @@
         <v>195.219952</v>
       </c>
       <c r="O8">
-        <v>0.5081980868432908</v>
+        <v>0.498855033889966</v>
       </c>
       <c r="P8">
-        <v>0.5081980868432908</v>
+        <v>0.498855033889966</v>
       </c>
       <c r="Q8">
-        <v>32.60511579650133</v>
+        <v>32.60511579650134</v>
       </c>
       <c r="R8">
-        <v>293.446042168512</v>
+        <v>293.4460421685121</v>
       </c>
       <c r="S8">
-        <v>0.002272615050575297</v>
+        <v>0.001970087321370171</v>
       </c>
       <c r="T8">
-        <v>0.002272615050575298</v>
+        <v>0.001970087321370171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H9">
         <v>1.503156</v>
       </c>
       <c r="I9">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J9">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.287576</v>
+        <v>13.434417</v>
       </c>
       <c r="N9">
-        <v>84.862728</v>
+        <v>40.303251</v>
       </c>
       <c r="O9">
-        <v>0.2209153089736574</v>
+        <v>0.1029888566076525</v>
       </c>
       <c r="P9">
-        <v>0.2209153089736574</v>
+        <v>0.1029888566076525</v>
       </c>
       <c r="Q9">
-        <v>14.173546529952</v>
+        <v>6.731341506684002</v>
       </c>
       <c r="R9">
-        <v>127.561918769568</v>
+        <v>60.58207356015601</v>
       </c>
       <c r="S9">
-        <v>0.0009879129203232142</v>
+        <v>0.000406725455014453</v>
       </c>
       <c r="T9">
-        <v>0.0009879129203232144</v>
+        <v>0.000406725455014453</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H10">
         <v>1.503156</v>
       </c>
       <c r="I10">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J10">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1328866666666667</v>
+        <v>0.1312456666666667</v>
       </c>
       <c r="N10">
-        <v>0.39866</v>
+        <v>0.393737</v>
       </c>
       <c r="O10">
-        <v>0.00103779479108235</v>
+        <v>0.001006135297475811</v>
       </c>
       <c r="P10">
-        <v>0.00103779479108235</v>
+        <v>0.001006135297475811</v>
       </c>
       <c r="Q10">
-        <v>0.06658313010666667</v>
+        <v>0.06576090377466667</v>
       </c>
       <c r="R10">
-        <v>0.59924817096</v>
+        <v>0.5918481339720001</v>
       </c>
       <c r="S10">
-        <v>4.640922747805758E-06</v>
+        <v>3.973447712221172E-06</v>
       </c>
       <c r="T10">
-        <v>4.640922747805759E-06</v>
+        <v>3.973447712221172E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H11">
         <v>1.503156</v>
       </c>
       <c r="I11">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J11">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01642466666666667</v>
+        <v>0.009204333333333333</v>
       </c>
       <c r="N11">
-        <v>0.049274</v>
+        <v>0.027613</v>
       </c>
       <c r="O11">
-        <v>0.0001282704573716743</v>
+        <v>7.056084129558454E-05</v>
       </c>
       <c r="P11">
-        <v>0.0001282704573716743</v>
+        <v>7.056084129558454E-05</v>
       </c>
       <c r="Q11">
-        <v>0.008229612082666666</v>
+        <v>0.004611849625333334</v>
       </c>
       <c r="R11">
-        <v>0.07406650874399999</v>
+        <v>0.041506646628</v>
       </c>
       <c r="S11">
-        <v>5.736136744980205E-07</v>
+        <v>2.786601505003676E-07</v>
       </c>
       <c r="T11">
-        <v>5.736136744980206E-07</v>
+        <v>2.786601505003676E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H12">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I12">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J12">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.53694666666667</v>
+        <v>51.79716133333333</v>
       </c>
       <c r="N12">
-        <v>103.61084</v>
+        <v>155.391484</v>
       </c>
       <c r="O12">
-        <v>0.2697205389345977</v>
+        <v>0.39707941336361</v>
       </c>
       <c r="P12">
-        <v>0.2697205389345977</v>
+        <v>0.3970794133636101</v>
       </c>
       <c r="Q12">
-        <v>1185.450255771004</v>
+        <v>2555.49222130256</v>
       </c>
       <c r="R12">
-        <v>10669.05230193904</v>
+        <v>22999.42999172304</v>
       </c>
       <c r="S12">
-        <v>0.08262728185932729</v>
+        <v>0.1544095980664634</v>
       </c>
       <c r="T12">
-        <v>0.0826272818593273</v>
+        <v>0.1544095980664635</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H13">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I13">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J13">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>195.219952</v>
       </c>
       <c r="O13">
-        <v>0.5081980868432908</v>
+        <v>0.498855033889966</v>
       </c>
       <c r="P13">
-        <v>0.5081980868432908</v>
+        <v>0.498855033889966</v>
       </c>
       <c r="Q13">
-        <v>2233.58426618299</v>
+        <v>3210.491694506626</v>
       </c>
       <c r="R13">
-        <v>20102.25839564691</v>
+        <v>28894.42525055963</v>
       </c>
       <c r="S13">
-        <v>0.1556834593607034</v>
+        <v>0.1939863983979604</v>
       </c>
       <c r="T13">
-        <v>0.1556834593607035</v>
+        <v>0.1939863983979604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H14">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I14">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J14">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.287576</v>
+        <v>13.434417</v>
       </c>
       <c r="N14">
-        <v>84.862728</v>
+        <v>40.303251</v>
       </c>
       <c r="O14">
-        <v>0.2209153089736574</v>
+        <v>0.1029888566076525</v>
       </c>
       <c r="P14">
-        <v>0.2209153089736574</v>
+        <v>0.1029888566076525</v>
       </c>
       <c r="Q14">
-        <v>970.946115416352</v>
+        <v>662.8075218311491</v>
       </c>
       <c r="R14">
-        <v>8738.515038747168</v>
+        <v>5965.267696480341</v>
       </c>
       <c r="S14">
-        <v>0.06767609012539061</v>
+        <v>0.0400485832781016</v>
       </c>
       <c r="T14">
-        <v>0.06767609012539062</v>
+        <v>0.0400485832781016</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H15">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I15">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J15">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1328866666666667</v>
+        <v>0.1312456666666667</v>
       </c>
       <c r="N15">
-        <v>0.39866</v>
+        <v>0.393737</v>
       </c>
       <c r="O15">
-        <v>0.00103779479108235</v>
+        <v>0.001006135297475811</v>
       </c>
       <c r="P15">
-        <v>0.00103779479108235</v>
+        <v>0.001006135297475811</v>
       </c>
       <c r="Q15">
-        <v>4.561217715884444</v>
+        <v>6.475205814618556</v>
       </c>
       <c r="R15">
-        <v>41.05095944296</v>
+        <v>58.276852331567</v>
       </c>
       <c r="S15">
-        <v>0.00031792225780661</v>
+        <v>0.0003912490591433899</v>
       </c>
       <c r="T15">
-        <v>0.0003179222578066101</v>
+        <v>0.0003912490591433899</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H16">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I16">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J16">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01642466666666667</v>
+        <v>0.009204333333333333</v>
       </c>
       <c r="N16">
-        <v>0.049274</v>
+        <v>0.027613</v>
       </c>
       <c r="O16">
-        <v>0.0001282704573716743</v>
+        <v>7.056084129558454E-05</v>
       </c>
       <c r="P16">
-        <v>0.0001282704573716743</v>
+        <v>7.056084129558454E-05</v>
       </c>
       <c r="Q16">
-        <v>0.5637622077271111</v>
+        <v>0.4541098706981112</v>
       </c>
       <c r="R16">
-        <v>5.073859869543999</v>
+        <v>4.086988836283</v>
       </c>
       <c r="S16">
-        <v>3.929489121347238E-05</v>
+        <v>2.743851929111672E-05</v>
       </c>
       <c r="T16">
-        <v>3.929489121347239E-05</v>
+        <v>2.743851929111672E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H17">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I17">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J17">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.53694666666667</v>
+        <v>51.79716133333333</v>
       </c>
       <c r="N17">
-        <v>103.61084</v>
+        <v>155.391484</v>
       </c>
       <c r="O17">
-        <v>0.2697205389345977</v>
+        <v>0.39707941336361</v>
       </c>
       <c r="P17">
-        <v>0.2697205389345977</v>
+        <v>0.3970794133636101</v>
       </c>
       <c r="Q17">
-        <v>1485.53616734768</v>
+        <v>2959.645460216565</v>
       </c>
       <c r="R17">
-        <v>13369.82550612912</v>
+        <v>26636.80914194908</v>
       </c>
       <c r="S17">
-        <v>0.1035436240484245</v>
+        <v>0.1788296055537734</v>
       </c>
       <c r="T17">
-        <v>0.1035436240484245</v>
+        <v>0.1788296055537734</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H18">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I18">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J18">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>195.219952</v>
       </c>
       <c r="O18">
-        <v>0.5081980868432908</v>
+        <v>0.498855033889966</v>
       </c>
       <c r="P18">
-        <v>0.5081980868432908</v>
+        <v>0.498855033889966</v>
       </c>
       <c r="Q18">
-        <v>2798.995735232704</v>
+        <v>3718.233649667029</v>
       </c>
       <c r="R18">
-        <v>25190.96161709434</v>
+        <v>33464.10284700326</v>
       </c>
       <c r="S18">
-        <v>0.195093306034769</v>
+        <v>0.2246655100635153</v>
       </c>
       <c r="T18">
-        <v>0.195093306034769</v>
+        <v>0.2246655100635153</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H19">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I19">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J19">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.287576</v>
+        <v>13.434417</v>
       </c>
       <c r="N19">
-        <v>84.862728</v>
+        <v>40.303251</v>
       </c>
       <c r="O19">
-        <v>0.2209153089736574</v>
+        <v>0.1029888566076525</v>
       </c>
       <c r="P19">
-        <v>0.2209153089736574</v>
+        <v>0.1029888566076525</v>
       </c>
       <c r="Q19">
-        <v>1216.732261834656</v>
+        <v>767.631087519048</v>
       </c>
       <c r="R19">
-        <v>10950.59035651191</v>
+        <v>6908.679787671432</v>
       </c>
       <c r="S19">
-        <v>0.08480767460002939</v>
+        <v>0.0463823003251885</v>
       </c>
       <c r="T19">
-        <v>0.0848076746000294</v>
+        <v>0.0463823003251885</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H20">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I20">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J20">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.1328866666666667</v>
+        <v>0.1312456666666667</v>
       </c>
       <c r="N20">
-        <v>0.39866</v>
+        <v>0.393737</v>
       </c>
       <c r="O20">
-        <v>0.00103779479108235</v>
+        <v>0.001006135297475811</v>
       </c>
       <c r="P20">
-        <v>0.00103779479108235</v>
+        <v>0.001006135297475811</v>
       </c>
       <c r="Q20">
-        <v>5.715848346320001</v>
+        <v>7.499265047042667</v>
       </c>
       <c r="R20">
-        <v>51.44263511688001</v>
+        <v>67.493385423384</v>
       </c>
       <c r="S20">
-        <v>0.0003984013754076786</v>
+        <v>0.0004531254261136092</v>
       </c>
       <c r="T20">
-        <v>0.0003984013754076787</v>
+        <v>0.0004531254261136092</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H21">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I21">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J21">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01642466666666667</v>
+        <v>0.009204333333333333</v>
       </c>
       <c r="N21">
-        <v>0.049274</v>
+        <v>0.027613</v>
       </c>
       <c r="O21">
-        <v>0.0001282704573716743</v>
+        <v>7.056084129558454E-05</v>
       </c>
       <c r="P21">
-        <v>0.0001282704573716743</v>
+        <v>7.056084129558454E-05</v>
       </c>
       <c r="Q21">
-        <v>0.7064734646480001</v>
+        <v>0.5259277277573333</v>
       </c>
       <c r="R21">
-        <v>6.358261181832</v>
+        <v>4.733349549815999</v>
       </c>
       <c r="S21">
-        <v>4.924203424431333E-05</v>
+        <v>3.177794413853686E-05</v>
       </c>
       <c r="T21">
-        <v>4.924203424431334E-05</v>
+        <v>3.177794413853686E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H22">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I22">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J22">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>34.53694666666667</v>
+        <v>51.79716133333333</v>
       </c>
       <c r="N22">
-        <v>103.61084</v>
+        <v>155.391484</v>
       </c>
       <c r="O22">
-        <v>0.2697205389345977</v>
+        <v>0.39707941336361</v>
       </c>
       <c r="P22">
-        <v>0.2697205389345977</v>
+        <v>0.3970794133636101</v>
       </c>
       <c r="Q22">
-        <v>1181.23133748936</v>
+        <v>1000.877567121506</v>
       </c>
       <c r="R22">
-        <v>10631.08203740424</v>
+        <v>9007.898104093556</v>
       </c>
       <c r="S22">
-        <v>0.08233321827605852</v>
+        <v>0.06047566944821234</v>
       </c>
       <c r="T22">
-        <v>0.08233321827605855</v>
+        <v>0.06047566944821235</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H23">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I23">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J23">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>195.219952</v>
       </c>
       <c r="O23">
-        <v>0.5081980868432908</v>
+        <v>0.498855033889966</v>
       </c>
       <c r="P23">
-        <v>0.5081980868432908</v>
+        <v>0.498855033889966</v>
       </c>
       <c r="Q23">
-        <v>2225.635126648608</v>
+        <v>1257.412990607241</v>
       </c>
       <c r="R23">
-        <v>20030.71613983747</v>
+        <v>11316.71691546517</v>
       </c>
       <c r="S23">
-        <v>0.155129394953826</v>
+        <v>0.07597621814878788</v>
       </c>
       <c r="T23">
-        <v>0.155129394953826</v>
+        <v>0.07597621814878788</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H24">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I24">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J24">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.287576</v>
+        <v>13.434417</v>
       </c>
       <c r="N24">
-        <v>84.862728</v>
+        <v>40.303251</v>
       </c>
       <c r="O24">
-        <v>0.2209153089736574</v>
+        <v>0.1029888566076525</v>
       </c>
       <c r="P24">
-        <v>0.2209153089736574</v>
+        <v>0.1029888566076525</v>
       </c>
       <c r="Q24">
-        <v>967.4905994241121</v>
+        <v>259.593503901201</v>
       </c>
       <c r="R24">
-        <v>8707.41539481701</v>
+        <v>2336.341535110809</v>
       </c>
       <c r="S24">
-        <v>0.06743523658263734</v>
+        <v>0.0156853260064389</v>
       </c>
       <c r="T24">
-        <v>0.06743523658263736</v>
+        <v>0.0156853260064389</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H25">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I25">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J25">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1328866666666667</v>
+        <v>0.1312456666666667</v>
       </c>
       <c r="N25">
-        <v>0.39866</v>
+        <v>0.393737</v>
       </c>
       <c r="O25">
-        <v>0.00103779479108235</v>
+        <v>0.001006135297475811</v>
       </c>
       <c r="P25">
-        <v>0.00103779479108235</v>
+        <v>0.001006135297475811</v>
       </c>
       <c r="Q25">
-        <v>4.544984723640001</v>
+        <v>2.536062598164778</v>
       </c>
       <c r="R25">
-        <v>40.90486251276</v>
+        <v>22.824563383483</v>
       </c>
       <c r="S25">
-        <v>0.000316790799089492</v>
+        <v>0.0001532356088544131</v>
       </c>
       <c r="T25">
-        <v>0.0003167907990894921</v>
+        <v>0.0001532356088544131</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H26">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I26">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J26">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.01642466666666667</v>
+        <v>0.009204333333333333</v>
       </c>
       <c r="N26">
-        <v>0.049274</v>
+        <v>0.027613</v>
       </c>
       <c r="O26">
-        <v>0.0001282704573716743</v>
+        <v>7.056084129558454E-05</v>
       </c>
       <c r="P26">
-        <v>0.0001282704573716743</v>
+        <v>7.056084129558454E-05</v>
       </c>
       <c r="Q26">
-        <v>0.5617558251960001</v>
+        <v>0.1778555140185556</v>
       </c>
       <c r="R26">
-        <v>5.055802426764</v>
+        <v>1.600699626167</v>
       </c>
       <c r="S26">
-        <v>3.915504398318272E-05</v>
+        <v>1.074650049981817E-05</v>
       </c>
       <c r="T26">
-        <v>3.915504398318274E-05</v>
+        <v>1.074650049981817E-05</v>
       </c>
     </row>
   </sheetData>
